--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.48936896367782</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N2">
-        <v>2.48936896367782</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O2">
-        <v>0.9317866370431893</v>
+        <v>0.9268761553538212</v>
       </c>
       <c r="P2">
-        <v>0.9317866370431893</v>
+        <v>0.9500328399529846</v>
       </c>
       <c r="Q2">
-        <v>1.443634043442113</v>
+        <v>2.514037565606444</v>
       </c>
       <c r="R2">
-        <v>1.443634043442113</v>
+        <v>22.626338090458</v>
       </c>
       <c r="S2">
-        <v>0.3310524351634376</v>
+        <v>0.3821694342774721</v>
       </c>
       <c r="T2">
-        <v>0.3310524351634376</v>
+        <v>0.418524395862967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.182239390330411</v>
+        <v>0.210048</v>
       </c>
       <c r="N3">
-        <v>0.182239390330411</v>
+        <v>0.420096</v>
       </c>
       <c r="O3">
-        <v>0.06821336295681067</v>
+        <v>0.07312384464617888</v>
       </c>
       <c r="P3">
-        <v>0.06821336295681067</v>
+        <v>0.04996716004701549</v>
       </c>
       <c r="Q3">
-        <v>0.1056842082374279</v>
+        <v>0.198339434368</v>
       </c>
       <c r="R3">
-        <v>0.1056842082374279</v>
+        <v>1.190036606208</v>
       </c>
       <c r="S3">
-        <v>0.02423537644755136</v>
+        <v>0.03015041241400377</v>
       </c>
       <c r="T3">
-        <v>0.02423537644755136</v>
+        <v>0.02201237114361253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H4">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I4">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J4">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.48936896367782</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N4">
-        <v>2.48936896367782</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O4">
-        <v>0.9317866370431893</v>
+        <v>0.9268761553538212</v>
       </c>
       <c r="P4">
-        <v>0.9317866370431893</v>
+        <v>0.9500328399529846</v>
       </c>
       <c r="Q4">
-        <v>1.64464906772641</v>
+        <v>1.817916399668444</v>
       </c>
       <c r="R4">
-        <v>1.64464906772641</v>
+        <v>16.361247597016</v>
       </c>
       <c r="S4">
-        <v>0.3771489605232057</v>
+        <v>0.2763491252197888</v>
       </c>
       <c r="T4">
-        <v>0.3771489605232057</v>
+        <v>0.30263762694297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H5">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I5">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J5">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.182239390330411</v>
+        <v>0.210048</v>
       </c>
       <c r="N5">
-        <v>0.182239390330411</v>
+        <v>0.420096</v>
       </c>
       <c r="O5">
-        <v>0.06821336295681067</v>
+        <v>0.07312384464617888</v>
       </c>
       <c r="P5">
-        <v>0.06821336295681067</v>
+        <v>0.04996716004701549</v>
       </c>
       <c r="Q5">
-        <v>0.1203999277660836</v>
+        <v>0.143420494336</v>
       </c>
       <c r="R5">
-        <v>0.1203999277660836</v>
+        <v>0.860522966016</v>
       </c>
       <c r="S5">
-        <v>0.0276099676795009</v>
+        <v>0.02180195313468311</v>
       </c>
       <c r="T5">
-        <v>0.0276099676795009</v>
+        <v>0.01591728423036062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +773,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -779,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H6">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I6">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J6">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.48936896367782</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N6">
-        <v>2.48936896367782</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O6">
-        <v>0.9317866370431893</v>
+        <v>0.9268761553538212</v>
       </c>
       <c r="P6">
-        <v>0.9317866370431893</v>
+        <v>0.9500328399529846</v>
       </c>
       <c r="Q6">
-        <v>0.9749974075079081</v>
+        <v>0.1948885799513333</v>
       </c>
       <c r="R6">
-        <v>0.9749974075079081</v>
+        <v>1.753997219562</v>
       </c>
       <c r="S6">
-        <v>0.2235852413565461</v>
+        <v>0.02962583350626049</v>
       </c>
       <c r="T6">
-        <v>0.2235852413565461</v>
+        <v>0.03244407573720872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,309 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.073199</v>
+      </c>
+      <c r="H7">
+        <v>0.219597</v>
+      </c>
+      <c r="I7">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J7">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.210048</v>
+      </c>
+      <c r="N7">
+        <v>0.420096</v>
+      </c>
+      <c r="O7">
+        <v>0.07312384464617888</v>
+      </c>
+      <c r="P7">
+        <v>0.04996716004701549</v>
+      </c>
+      <c r="Q7">
+        <v>0.015375303552</v>
+      </c>
+      <c r="R7">
+        <v>0.09225182131199999</v>
+      </c>
+      <c r="S7">
+        <v>0.002337264621936875</v>
+      </c>
+      <c r="T7">
+        <v>0.001706402407119766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.449404</v>
+      </c>
+      <c r="I8">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J8">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.662448666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.987346000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9268761553538212</v>
+      </c>
+      <c r="P8">
+        <v>0.9500328399529846</v>
+      </c>
+      <c r="Q8">
+        <v>0.3988383601982223</v>
+      </c>
+      <c r="R8">
+        <v>3.589545241784001</v>
+      </c>
+      <c r="S8">
+        <v>0.06062909821649425</v>
+      </c>
+      <c r="T8">
+        <v>0.06639661476524975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H7">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I7">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J7">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.182239390330411</v>
-      </c>
-      <c r="N7">
-        <v>0.182239390330411</v>
-      </c>
-      <c r="O7">
-        <v>0.06821336295681067</v>
-      </c>
-      <c r="P7">
-        <v>0.06821336295681067</v>
-      </c>
-      <c r="Q7">
-        <v>0.0713766965486152</v>
-      </c>
-      <c r="R7">
-        <v>0.0713766965486152</v>
-      </c>
-      <c r="S7">
-        <v>0.01636801882975842</v>
-      </c>
-      <c r="T7">
-        <v>0.01636801882975842</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.449404</v>
+      </c>
+      <c r="I9">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J9">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.210048</v>
+      </c>
+      <c r="N9">
+        <v>0.420096</v>
+      </c>
+      <c r="O9">
+        <v>0.07312384464617888</v>
+      </c>
+      <c r="P9">
+        <v>0.04996716004701549</v>
+      </c>
+      <c r="Q9">
+        <v>0.031465470464</v>
+      </c>
+      <c r="R9">
+        <v>0.188792822784</v>
+      </c>
+      <c r="S9">
+        <v>0.004783198632754178</v>
+      </c>
+      <c r="T9">
+        <v>0.003492142731318057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.440053</v>
+      </c>
+      <c r="H10">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J10">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.662448666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.987346000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9268761553538212</v>
+      </c>
+      <c r="P10">
+        <v>0.9500328399529846</v>
+      </c>
+      <c r="Q10">
+        <v>1.171618523112667</v>
+      </c>
+      <c r="R10">
+        <v>7.029711138676</v>
+      </c>
+      <c r="S10">
+        <v>0.1781026641338057</v>
+      </c>
+      <c r="T10">
+        <v>0.130030126644589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.440053</v>
+      </c>
+      <c r="H11">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J11">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.210048</v>
+      </c>
+      <c r="N11">
+        <v>0.420096</v>
+      </c>
+      <c r="O11">
+        <v>0.07312384464617888</v>
+      </c>
+      <c r="P11">
+        <v>0.04996716004701549</v>
+      </c>
+      <c r="Q11">
+        <v>0.092432252544</v>
+      </c>
+      <c r="R11">
+        <v>0.369729010176</v>
+      </c>
+      <c r="S11">
+        <v>0.01405101584280096</v>
+      </c>
+      <c r="T11">
+        <v>0.00683895953460452</v>
       </c>
     </row>
   </sheetData>
